--- a/biology/Zoologie/Hemiscorpius_gaillardi/Hemiscorpius_gaillardi.xlsx
+++ b/biology/Zoologie/Hemiscorpius_gaillardi/Hemiscorpius_gaillardi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemiscorpius gaillardi est une espèce de scorpions de la famille des Hemiscorpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'Est de l'Iran[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'Est de l'Iran,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 51 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 51 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Maurice Gaillard[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Maurice Gaillard.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vachon, 1974 : Étude des caractères utilisés pour classer les familles et les genres de Scorpions (Arachnides). l. La trichobothriotaxie en Arachnologie. Sigles trichobothriaux et types de trichobothriotaxie chez les scorpions. Bulletin du Muséum national d'histoire naturelle? Zoologie, sér. 3, vol. 104, no 140, p. 857-958 (texte intégral).</t>
         </is>
